--- a/yt/parallel_double/summary/Summary_LS_Double_yt_r006.ib.bridges2.psc.edu_logSum75.xlsx
+++ b/yt/parallel_double/summary/Summary_LS_Double_yt_r006.ib.bridges2.psc.edu_logSum75.xlsx
@@ -5,27 +5,27 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\InequityAversionPricing\yt\parallel_double2\summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\InequityAversionPricing\yt\parallel_double\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E214E376-49D5-4621-B2BD-74FF7875D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADBEFC7-6105-48F5-8C28-6D98B0132852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B88D2681-A9F2-42BC-9163-A23AAD1A9B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_LS_Double_yt_r006.ib.br" sheetId="1" r:id="rId1"/>
-    <sheet name="Q1-Q2 (NONE)" sheetId="16" r:id="rId2"/>
+    <sheet name="Q1-Q2" sheetId="16" r:id="rId2"/>
     <sheet name="Q1-Q3" sheetId="3" r:id="rId3"/>
     <sheet name="Q1-Q4" sheetId="2" r:id="rId4"/>
     <sheet name="Q1-Q5" sheetId="4" r:id="rId5"/>
-    <sheet name="Q1-Q6 (incomplete)" sheetId="5" r:id="rId6"/>
+    <sheet name="Q1-Q6" sheetId="5" r:id="rId6"/>
     <sheet name="Q2-Q3" sheetId="6" r:id="rId7"/>
     <sheet name="Q2-Q4" sheetId="7" r:id="rId8"/>
     <sheet name="Q2-Q5" sheetId="8" r:id="rId9"/>
     <sheet name="Q2-Q6" sheetId="9" r:id="rId10"/>
     <sheet name="Q3-Q4" sheetId="10" r:id="rId11"/>
     <sheet name="Q3-Q5" sheetId="11" r:id="rId12"/>
-    <sheet name="Q3-Q6 (incomplete)" sheetId="12" r:id="rId13"/>
+    <sheet name="Q3-Q6" sheetId="12" r:id="rId13"/>
     <sheet name="Q4-Q5" sheetId="13" r:id="rId14"/>
     <sheet name="Q4-Q6" sheetId="14" r:id="rId15"/>
     <sheet name="Q5-Q6" sheetId="15" r:id="rId16"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="29">
   <si>
     <t>Machine</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>r472.ib.bridges2.psc.edu</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,12 +465,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -633,12 +630,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,7 +1017,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -1062,592 +1058,664 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="3">
+        <f>'Q1-Q2'!K2</f>
+        <v>10721.6594951152</v>
+      </c>
+      <c r="H2" s="3">
+        <f>'Q1-Q2'!K9</f>
+        <v>77812.134256601305</v>
+      </c>
+      <c r="I2" s="3">
+        <f>'Q1-Q2'!I2</f>
+        <v>43404169.385615997</v>
+      </c>
+      <c r="J2" s="3">
+        <f>'Q1-Q2'!I9</f>
+        <v>167084575.50837401</v>
+      </c>
+      <c r="K2" s="3">
+        <f>'Q1-Q2'!J2</f>
+        <v>1134890</v>
+      </c>
+      <c r="L2" s="3">
+        <f>'Q1-Q2'!J9</f>
+        <v>2733004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <f>'Q1-Q3'!K2</f>
+        <v>131.30531907081601</v>
+      </c>
+      <c r="H3" s="3">
+        <f>'Q1-Q3'!K9</f>
+        <v>112184.274060964</v>
+      </c>
+      <c r="I3" s="3">
+        <f>'Q1-Q3'!I2</f>
+        <v>91405024.690531805</v>
+      </c>
+      <c r="J3" s="3">
+        <f>'Q1-Q3'!I9</f>
+        <v>167588383.465882</v>
+      </c>
+      <c r="K3" s="3">
+        <f>'Q1-Q3'!J2</f>
+        <v>2269780</v>
+      </c>
+      <c r="L3" s="3">
+        <f>'Q1-Q3'!J9</f>
+        <v>2744274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <f>'Q1-Q4'!K2</f>
+        <v>159.14938378334</v>
+      </c>
+      <c r="H4" s="3">
+        <f>'Q1-Q4'!K10</f>
+        <v>123201.095238208</v>
+      </c>
+      <c r="I4" s="3">
+        <f>'Q1-Q4'!I2</f>
+        <v>73972249.637163803</v>
+      </c>
+      <c r="J4" s="3">
+        <f>'Q1-Q4'!I10</f>
+        <v>166467190.93119201</v>
+      </c>
+      <c r="K4" s="3">
+        <f>'Q1-Q4'!J2</f>
+        <v>2269780</v>
+      </c>
+      <c r="L4" s="3">
+        <f>'Q1-Q4'!J10</f>
+        <v>2580072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G5" s="3">
+        <f>'Q1-Q5'!K2</f>
+        <v>196.539252281188</v>
+      </c>
+      <c r="H5" s="3">
+        <f>'Q1-Q5'!K9</f>
+        <v>116722.97281599</v>
+      </c>
+      <c r="I5" s="3">
+        <f>'Q1-Q5'!I2</f>
+        <v>112447203.22904301</v>
+      </c>
+      <c r="J5" s="3">
+        <f>'Q1-Q5'!I9</f>
+        <v>167813217.22567099</v>
+      </c>
+      <c r="K5" s="3">
+        <f>'Q1-Q5'!J2</f>
+        <v>2269780</v>
+      </c>
+      <c r="L5" s="3">
+        <f>'Q1-Q5'!J9</f>
+        <v>2721696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <f>'Q1-Q6'!K2</f>
+        <v>259.82446074485699</v>
+      </c>
+      <c r="H6" s="1">
+        <f>'Q1-Q6'!K12</f>
+        <v>151198.75536179499</v>
+      </c>
+      <c r="I6" s="1">
+        <f>'Q1-Q6'!I2</f>
+        <v>80984802.561544895</v>
+      </c>
+      <c r="J6" s="1">
+        <f>'Q1-Q6'!I12</f>
+        <v>157184398.962944</v>
+      </c>
+      <c r="K6" s="1">
+        <f>'Q1-Q6'!J2</f>
+        <v>2269780</v>
+      </c>
+      <c r="L6" s="1">
+        <f>'Q1-Q6'!J12</f>
+        <v>2752517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f>'Q2-Q3'!K2</f>
+        <v>284.416514635086</v>
+      </c>
+      <c r="H7">
+        <f>'Q2-Q3'!K9</f>
+        <v>117153.17886805499</v>
+      </c>
+      <c r="I7">
+        <f>'Q2-Q3'!I2</f>
+        <v>107505372.688604</v>
+      </c>
+      <c r="J7">
+        <f>'Q2-Q3'!I9</f>
+        <v>167642997.08927399</v>
+      </c>
+      <c r="K7">
+        <f>'Q2-Q3'!J2</f>
+        <v>2269780</v>
+      </c>
+      <c r="L7">
+        <f>'Q2-Q3'!J9</f>
+        <v>2743396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f>'Q2-Q4'!K2</f>
+        <v>331.49912309646601</v>
+      </c>
+      <c r="H8">
+        <f>'Q2-Q4'!K9</f>
+        <v>108759.05831146199</v>
+      </c>
+      <c r="I8">
+        <f>'Q2-Q4'!I2</f>
+        <v>89678966.253010303</v>
+      </c>
+      <c r="J8">
+        <f>'Q2-Q4'!I9</f>
+        <v>167239077.035999</v>
+      </c>
+      <c r="K8">
+        <f>'Q2-Q4'!J2</f>
+        <v>2269780</v>
+      </c>
+      <c r="L8">
+        <f>'Q2-Q4'!J9</f>
+        <v>2587037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
         <f>'Q2-Q5'!K2</f>
         <v>381.66471362113901</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H9" s="2">
         <f>'Q2-Q5'!K8</f>
         <v>104276.04852986299</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I9" s="2">
         <f>'Q2-Q5'!I2</f>
         <v>137003376.84949499</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J9" s="2">
         <f>'Q2-Q5'!I8</f>
         <v>167909960.82857499</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K9" s="2">
         <f>'Q2-Q5'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L9" s="2">
         <f>'Q2-Q5'!J8</f>
         <v>2705200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f>'Q2-Q6'!K2</f>
+        <v>418.21880817413302</v>
+      </c>
+      <c r="H10">
+        <f>'Q2-Q6'!K12</f>
+        <v>145274.67324256801</v>
+      </c>
+      <c r="I10">
+        <f>'Q2-Q6'!I2</f>
+        <v>100876071.67364299</v>
+      </c>
+      <c r="J10">
+        <f>'Q2-Q6'!I12</f>
+        <v>157182794.39133501</v>
+      </c>
+      <c r="K10">
+        <f>'Q2-Q6'!J2</f>
+        <v>2269780</v>
+      </c>
+      <c r="L10">
+        <f>'Q2-Q6'!J12</f>
+        <v>2745693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f>'Q3-Q4'!K2</f>
+        <v>15164.267755270001</v>
+      </c>
+      <c r="H11">
+        <f>'Q3-Q4'!K9</f>
+        <v>128140.976421356</v>
+      </c>
+      <c r="I11">
+        <f>'Q3-Q4'!I2</f>
+        <v>71961073.893373504</v>
+      </c>
+      <c r="J11">
+        <f>'Q3-Q4'!I9</f>
+        <v>167041797.183754</v>
+      </c>
+      <c r="K11">
+        <f>'Q3-Q4'!J2</f>
+        <v>1134890</v>
+      </c>
+      <c r="L11">
+        <f>'Q3-Q4'!J9</f>
+        <v>2586252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="G3">
-        <f>'Q1-Q5'!K2</f>
-        <v>196.539252281188</v>
-      </c>
-      <c r="H3">
-        <f>'Q1-Q5'!K9</f>
-        <v>116722.97281599</v>
-      </c>
-      <c r="I3">
-        <f>'Q1-Q5'!I2</f>
-        <v>112447203.22904301</v>
-      </c>
-      <c r="J3">
-        <f>'Q1-Q5'!I9</f>
-        <v>167813217.22567099</v>
-      </c>
-      <c r="K3">
-        <f>'Q1-Q5'!J2</f>
-        <v>2269780</v>
-      </c>
-      <c r="L3">
-        <f>'Q1-Q5'!J9</f>
-        <v>2721696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
+      <c r="G12">
         <f>'Q3-Q5'!K2</f>
         <v>555.66885185241699</v>
       </c>
-      <c r="H4">
+      <c r="H12">
         <f>'Q3-Q5'!K8</f>
         <v>100767.887787103</v>
       </c>
-      <c r="I4">
+      <c r="I12">
         <f>'Q3-Q5'!I2</f>
         <v>164389861.810213</v>
       </c>
-      <c r="J4">
+      <c r="J12">
         <f>'Q3-Q5'!I8</f>
         <v>167672816.94923201</v>
       </c>
-      <c r="K4">
+      <c r="K12">
         <f>'Q3-Q5'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L4">
+      <c r="L12">
         <f>'Q3-Q5'!J8</f>
         <v>2748783</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="G5">
-        <f>'Q2-Q3'!K2</f>
-        <v>284.416514635086</v>
-      </c>
-      <c r="H5">
-        <f>'Q2-Q3'!K9</f>
-        <v>117153.17886805499</v>
-      </c>
-      <c r="I5">
-        <f>'Q2-Q3'!I2</f>
-        <v>107505372.688604</v>
-      </c>
-      <c r="J5">
-        <f>'Q2-Q3'!I9</f>
-        <v>167642997.08927399</v>
-      </c>
-      <c r="K5">
-        <f>'Q2-Q3'!J2</f>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <f>'Q3-Q6'!K2</f>
+        <v>609.62707757949795</v>
+      </c>
+      <c r="H13" s="3">
+        <f>'Q3-Q6'!K13</f>
+        <v>152329.908244133</v>
+      </c>
+      <c r="I13" s="3">
+        <f>'Q3-Q6'!I2</f>
+        <v>137304559.97942299</v>
+      </c>
+      <c r="J13" s="3">
+        <f>'Q3-Q6'!I13</f>
+        <v>157476722.944222</v>
+      </c>
+      <c r="K13" s="3">
+        <f>'Q3-Q6'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L5">
-        <f>'Q2-Q3'!J9</f>
-        <v>2743396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="L13" s="3">
+        <f>'Q3-Q6'!J13</f>
+        <v>2769028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <f>'Q1-Q3'!K2</f>
-        <v>131.30531907081601</v>
-      </c>
-      <c r="H6">
-        <f>'Q1-Q3'!K9</f>
-        <v>112184.274060964</v>
-      </c>
-      <c r="I6">
-        <f>'Q1-Q3'!I2</f>
-        <v>91405024.690531805</v>
-      </c>
-      <c r="J6">
-        <f>'Q1-Q3'!I9</f>
-        <v>167588383.465882</v>
-      </c>
-      <c r="K6">
-        <f>'Q1-Q3'!J2</f>
-        <v>2269780</v>
-      </c>
-      <c r="L6">
-        <f>'Q1-Q3'!J9</f>
-        <v>2744274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="G7">
-        <f>'Q2-Q4'!K2</f>
-        <v>331.49912309646601</v>
-      </c>
-      <c r="H7">
-        <f>'Q2-Q4'!K9</f>
-        <v>108759.05831146199</v>
-      </c>
-      <c r="I7">
-        <f>'Q2-Q4'!I2</f>
-        <v>89678966.253010303</v>
-      </c>
-      <c r="J7">
-        <f>'Q2-Q4'!I9</f>
-        <v>167239077.035999</v>
-      </c>
-      <c r="K7">
-        <f>'Q2-Q4'!J2</f>
-        <v>2269780</v>
-      </c>
-      <c r="L7">
-        <f>'Q2-Q4'!J9</f>
-        <v>2587037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <f>'Q3-Q4'!K2</f>
-        <v>15164.267755270001</v>
-      </c>
-      <c r="H8">
-        <f>'Q3-Q4'!K9</f>
-        <v>128140.976421356</v>
-      </c>
-      <c r="I8">
-        <f>'Q3-Q4'!I2</f>
-        <v>71961073.893373504</v>
-      </c>
-      <c r="J8">
-        <f>'Q3-Q4'!I9</f>
-        <v>167041797.183754</v>
-      </c>
-      <c r="K8">
-        <f>'Q3-Q4'!J2</f>
-        <v>1134890</v>
-      </c>
-      <c r="L8">
-        <f>'Q3-Q4'!J9</f>
-        <v>2586252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G14">
         <f>'Q4-Q5'!K2</f>
         <v>650.99892902374199</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H14">
         <f>'Q4-Q5'!K10</f>
         <v>133257.50595950999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I14">
         <f>'Q4-Q5'!I2</f>
         <v>160479440.23577499</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J14">
         <f>'Q4-Q5'!I10</f>
         <v>166902797.28971601</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K14">
         <f>'Q4-Q5'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L14">
         <f>'Q4-Q5'!J10</f>
         <v>2599019</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="G10">
-        <f>'Q1-Q4'!K2</f>
-        <v>159.14938378334</v>
-      </c>
-      <c r="H10">
-        <f>'Q1-Q4'!K10</f>
-        <v>123201.095238208</v>
-      </c>
-      <c r="I10">
-        <f>'Q1-Q4'!I2</f>
-        <v>73972249.637163803</v>
-      </c>
-      <c r="J10">
-        <f>'Q1-Q4'!I10</f>
-        <v>166467190.93119201</v>
-      </c>
-      <c r="K10">
-        <f>'Q1-Q4'!J2</f>
-        <v>2269780</v>
-      </c>
-      <c r="L10">
-        <f>'Q1-Q4'!J10</f>
-        <v>2580072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="G11">
-        <f>'Q2-Q6'!K2</f>
-        <v>418.21880817413302</v>
-      </c>
-      <c r="H11">
-        <f>'Q2-Q6'!K12</f>
-        <v>145274.67324256801</v>
-      </c>
-      <c r="I11">
-        <f>'Q2-Q6'!I2</f>
-        <v>100876071.67364299</v>
-      </c>
-      <c r="J11">
-        <f>'Q2-Q6'!I12</f>
-        <v>157182794.39133501</v>
-      </c>
-      <c r="K11">
-        <f>'Q2-Q6'!J2</f>
-        <v>2269780</v>
-      </c>
-      <c r="L11">
-        <f>'Q2-Q6'!J12</f>
-        <v>2745693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>13368.943965435001</v>
-      </c>
-      <c r="H12">
-        <v>110346.06375288899</v>
-      </c>
-      <c r="I12">
-        <v>88235786.284923404</v>
-      </c>
-      <c r="J12">
-        <v>157103324.86314499</v>
-      </c>
-      <c r="K12">
-        <v>1134890</v>
-      </c>
-      <c r="L12">
-        <v>2752862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="G15">
         <f>'Q4-Q6'!K2</f>
         <v>719.36470103263798</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H15">
         <f>'Q4-Q6'!K11</f>
         <v>143616.92143273301</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I15">
         <f>'Q4-Q6'!I2</f>
         <v>127567616.672461</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J15">
         <f>'Q4-Q6'!I11</f>
         <v>153745790.18927899</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K15">
         <f>'Q4-Q6'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L15">
         <f>'Q4-Q6'!J11</f>
         <v>2623155</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6</v>
+      <c r="G16" s="3">
+        <v>13368.943965435001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>110346.06375288899</v>
+      </c>
+      <c r="I16" s="3">
+        <v>88235786.284923404</v>
+      </c>
+      <c r="J16" s="3">
+        <v>157103324.86314499</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1134890</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2752862</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L13">
-    <sortCondition descending="1" ref="J2:J13"/>
-    <sortCondition ref="H2:H13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
+    <sortCondition ref="E2:E16"/>
+    <sortCondition ref="F2:F16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2718,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F68A5F-209B-41E0-AE25-54650D2AF1E2}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3144,6 +3212,41 @@
       </c>
       <c r="K12">
         <v>142938.06952452601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.75</v>
+      </c>
+      <c r="I13">
+        <v>157476722.944222</v>
+      </c>
+      <c r="J13">
+        <v>2769028</v>
+      </c>
+      <c r="K13">
+        <v>152329.908244133</v>
       </c>
     </row>
   </sheetData>
@@ -4353,12 +4456,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE8F978-8535-4877-9AF2-6CDD59ECD9B3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <v>43404169.385615997</v>
+      </c>
+      <c r="J2">
+        <v>1134890</v>
+      </c>
+      <c r="K2">
+        <v>10721.6594951152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>2688091</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <v>159725903.47392601</v>
+      </c>
+      <c r="J3">
+        <v>3190913</v>
+      </c>
+      <c r="K3">
+        <v>20378.704014062801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>317304</v>
+      </c>
+      <c r="G4">
+        <v>353310</v>
+      </c>
+      <c r="H4">
+        <v>0.75</v>
+      </c>
+      <c r="I4">
+        <v>166879652.89497301</v>
+      </c>
+      <c r="J4">
+        <v>2798459</v>
+      </c>
+      <c r="K4">
+        <v>29963.3920063972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>11623</v>
+      </c>
+      <c r="G5">
+        <v>66100</v>
+      </c>
+      <c r="H5">
+        <v>0.75</v>
+      </c>
+      <c r="I5">
+        <v>167069735.59437501</v>
+      </c>
+      <c r="J5">
+        <v>2735044</v>
+      </c>
+      <c r="K5">
+        <v>39663.656700372601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>1310</v>
+      </c>
+      <c r="G6">
+        <v>1879</v>
+      </c>
+      <c r="H6">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>167083715.81790701</v>
+      </c>
+      <c r="J6">
+        <v>2733265</v>
+      </c>
+      <c r="K6">
+        <v>49156.255477666797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>262</v>
+      </c>
+      <c r="H7">
+        <v>0.75</v>
+      </c>
+      <c r="I7">
+        <v>167084560.73392799</v>
+      </c>
+      <c r="J7">
+        <v>2733012</v>
+      </c>
+      <c r="K7">
+        <v>58819.659041643099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>0.75</v>
+      </c>
+      <c r="I8">
+        <v>167084575.50835699</v>
+      </c>
+      <c r="J8">
+        <v>2733004</v>
+      </c>
+      <c r="K8">
+        <v>68311.034307003007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.75</v>
+      </c>
+      <c r="I9">
+        <v>167084575.50837401</v>
+      </c>
+      <c r="J9">
+        <v>2733004</v>
+      </c>
+      <c r="K9">
+        <v>77812.134256601305</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5390,10 +5811,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5719F212-19B2-47A3-848C-59A2702CD2A5}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5781,6 +6202,41 @@
       </c>
       <c r="K11">
         <v>141275.81219458501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.75</v>
+      </c>
+      <c r="I12">
+        <v>157184398.962944</v>
+      </c>
+      <c r="J12">
+        <v>2752517</v>
+      </c>
+      <c r="K12">
+        <v>151198.75536179499</v>
       </c>
     </row>
   </sheetData>

--- a/yt/parallel_double/summary/Summary_LS_Double_yt_r006.ib.bridges2.psc.edu_logSum75.xlsx
+++ b/yt/parallel_double/summary/Summary_LS_Double_yt_r006.ib.bridges2.psc.edu_logSum75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\InequityAversionPricing\yt\parallel_double\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADBEFC7-6105-48F5-8C28-6D98B0132852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E365E20D-8CB3-4805-BA12-3965141650BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B88D2681-A9F2-42BC-9163-A23AAD1A9B1F}"/>
   </bookViews>
@@ -277,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,12 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -630,10 +624,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1058,657 +1051,657 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <f>'Q1-Q2'!K2</f>
         <v>10721.6594951152</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <f>'Q1-Q2'!K9</f>
         <v>77812.134256601305</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <f>'Q1-Q2'!I2</f>
         <v>43404169.385615997</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <f>'Q1-Q2'!I9</f>
         <v>167084575.50837401</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <f>'Q1-Q2'!J2</f>
         <v>1134890</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <f>'Q1-Q2'!J9</f>
         <v>2733004</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <f>'Q1-Q3'!K2</f>
         <v>131.30531907081601</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <f>'Q1-Q3'!K9</f>
         <v>112184.274060964</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <f>'Q1-Q3'!I2</f>
         <v>91405024.690531805</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <f>'Q1-Q3'!I9</f>
         <v>167588383.465882</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <f>'Q1-Q3'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <f>'Q1-Q3'!J9</f>
         <v>2744274</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <f>'Q1-Q4'!K2</f>
         <v>159.14938378334</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <f>'Q1-Q4'!K10</f>
         <v>123201.095238208</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <f>'Q1-Q4'!I2</f>
         <v>73972249.637163803</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <f>'Q1-Q4'!I10</f>
         <v>166467190.93119201</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <f>'Q1-Q4'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <f>'Q1-Q4'!J10</f>
         <v>2580072</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <f>'Q1-Q5'!K2</f>
         <v>196.539252281188</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <f>'Q1-Q5'!K9</f>
         <v>116722.97281599</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <f>'Q1-Q5'!I2</f>
         <v>112447203.22904301</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <f>'Q1-Q5'!I9</f>
         <v>167813217.22567099</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <f>'Q1-Q5'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <f>'Q1-Q5'!J9</f>
         <v>2721696</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f>'Q1-Q6'!K2</f>
         <v>259.82446074485699</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f>'Q1-Q6'!K12</f>
         <v>151198.75536179499</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <f>'Q1-Q6'!I2</f>
         <v>80984802.561544895</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <f>'Q1-Q6'!I12</f>
         <v>157184398.962944</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f>'Q1-Q6'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <f>'Q1-Q6'!J12</f>
         <v>2752517</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f>'Q2-Q3'!K2</f>
         <v>284.416514635086</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>'Q2-Q3'!K9</f>
         <v>117153.17886805499</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f>'Q2-Q3'!I2</f>
         <v>107505372.688604</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f>'Q2-Q3'!I9</f>
         <v>167642997.08927399</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f>'Q2-Q3'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f>'Q2-Q3'!J9</f>
         <v>2743396</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f>'Q2-Q4'!K2</f>
         <v>331.49912309646601</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f>'Q2-Q4'!K9</f>
         <v>108759.05831146199</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f>'Q2-Q4'!I2</f>
         <v>89678966.253010303</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f>'Q2-Q4'!I9</f>
         <v>167239077.035999</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <f>'Q2-Q4'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f>'Q2-Q4'!J9</f>
         <v>2587037</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f>'Q2-Q5'!K2</f>
         <v>381.66471362113901</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f>'Q2-Q5'!K8</f>
         <v>104276.04852986299</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f>'Q2-Q5'!I2</f>
         <v>137003376.84949499</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f>'Q2-Q5'!I8</f>
         <v>167909960.82857499</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>'Q2-Q5'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f>'Q2-Q5'!J8</f>
         <v>2705200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f>'Q2-Q6'!K2</f>
         <v>418.21880817413302</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f>'Q2-Q6'!K12</f>
         <v>145274.67324256801</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f>'Q2-Q6'!I2</f>
         <v>100876071.67364299</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f>'Q2-Q6'!I12</f>
         <v>157182794.39133501</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <f>'Q2-Q6'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f>'Q2-Q6'!J12</f>
         <v>2745693</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f>'Q3-Q4'!K2</f>
         <v>15164.267755270001</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f>'Q3-Q4'!K9</f>
         <v>128140.976421356</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f>'Q3-Q4'!I2</f>
         <v>71961073.893373504</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <f>'Q3-Q4'!I9</f>
         <v>167041797.183754</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <f>'Q3-Q4'!J2</f>
         <v>1134890</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f>'Q3-Q4'!J9</f>
         <v>2586252</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <f>'Q3-Q5'!K2</f>
         <v>555.66885185241699</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f>'Q3-Q5'!K8</f>
         <v>100767.887787103</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f>'Q3-Q5'!I2</f>
         <v>164389861.810213</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f>'Q3-Q5'!I8</f>
         <v>167672816.94923201</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <f>'Q3-Q5'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <f>'Q3-Q5'!J8</f>
         <v>2748783</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>6</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f>'Q3-Q6'!K2</f>
         <v>609.62707757949795</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f>'Q3-Q6'!K13</f>
         <v>152329.908244133</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <f>'Q3-Q6'!I2</f>
         <v>137304559.97942299</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <f>'Q3-Q6'!I13</f>
         <v>157476722.944222</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <f>'Q3-Q6'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <f>'Q3-Q6'!J13</f>
         <v>2769028</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f>'Q4-Q5'!K2</f>
         <v>650.99892902374199</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f>'Q4-Q5'!K10</f>
         <v>133257.50595950999</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f>'Q4-Q5'!I2</f>
         <v>160479440.23577499</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <f>'Q4-Q5'!I10</f>
         <v>166902797.28971601</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <f>'Q4-Q5'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <f>'Q4-Q5'!J10</f>
         <v>2599019</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>6</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f>'Q4-Q6'!K2</f>
         <v>719.36470103263798</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f>'Q4-Q6'!K11</f>
         <v>143616.92143273301</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f>'Q4-Q6'!I2</f>
         <v>127567616.672461</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <f>'Q4-Q6'!I11</f>
         <v>153745790.18927899</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <f>'Q4-Q6'!J2</f>
         <v>2269780</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <f>'Q4-Q6'!J11</f>
         <v>2623155</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>13368.943965435001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>110346.06375288899</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>88235786.284923404</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>157103324.86314499</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>1134890</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <v>2752862</v>
       </c>
     </row>
